--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1172.127503892228</v>
+        <v>1083.59912398144</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.40998665641843e-05</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>3.712041619408023</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.571887095804371</v>
+        <v>3.658511919077431</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>616.7800000000028</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.5100000000001</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.469817807045693</v>
+        <v>27.53018219295432</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.575377337951519</v>
+        <v>24.4246226620485</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.84866676379884</v>
+        <v>9.151333236201161</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.61296311465065</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.35722294236247</v>
+        <v>20.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,57 +1085,15 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999963</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.0549999999994</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7749999999994</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.6749999999994</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.3349999999994</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>117.75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>257.4150000000003</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>256.2050000000003</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>260.6950000000003</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>266.0350000000003</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>268.0400000000003</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>211.8150000000004</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>217.4800000000004</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>218.3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>227.8600000000004</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>226.7750000000004</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>150.1250000000001</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>154.8150000000001</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>152.0100000000001</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>163.1600000000001</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>165.2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>257.4150000000003</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>256.2050000000003</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>260.6950000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>266.0350000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>268.0400000000003</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1659,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.4150000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.20500000000027</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>60.69500000000028</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>66.03500000000025</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>68.0400000000003</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2068,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2079,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2101,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2112,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2165,10 +2123,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2176,45 +2134,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
